--- a/Project_Documents/Actuators_condition/Actuators condition.xlsx
+++ b/Project_Documents/Actuators_condition/Actuators condition.xlsx
@@ -1204,9 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:H22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1641,11 +1639,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -1655,6 +1648,11 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
